--- a/Data/CERP_PBC_Summary_Data.xlsx
+++ b/Data/CERP_PBC_Summary_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Monthly-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CBC28E-D700-46C7-A429-E0FC707CB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A639EAC-4A58-4790-8CF9-426EB8229F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dermo Station" sheetId="1" r:id="rId1"/>
@@ -2274,9 +2274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>470</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45017</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45047</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45078</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45108</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45139</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45170</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45200</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45231</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45261</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45292</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45323</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45352</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45383</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45413</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45444</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -8666,113 +8666,113 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" customWidth="1"/>
-    <col min="25" max="25" width="21.44140625" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="12.5546875" customWidth="1"/>
-    <col min="29" max="29" width="21.44140625" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" customWidth="1"/>
-    <col min="31" max="31" width="15.5546875" customWidth="1"/>
-    <col min="32" max="32" width="12.88671875" customWidth="1"/>
-    <col min="33" max="33" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="21.42578125" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" customWidth="1"/>
     <col min="34" max="34" width="19" customWidth="1"/>
-    <col min="35" max="35" width="15.5546875" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="37" max="37" width="21.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" customWidth="1"/>
+    <col min="37" max="37" width="21.7109375" customWidth="1"/>
     <col min="38" max="38" width="19" customWidth="1"/>
-    <col min="39" max="39" width="15.5546875" customWidth="1"/>
-    <col min="40" max="40" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="21.6640625" customWidth="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1"/>
+    <col min="40" max="40" width="12.85546875" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" customWidth="1"/>
     <col min="42" max="42" width="19" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" customWidth="1"/>
-    <col min="44" max="44" width="12.5546875" customWidth="1"/>
-    <col min="45" max="45" width="21.44140625" customWidth="1"/>
-    <col min="46" max="46" width="18.6640625" customWidth="1"/>
-    <col min="47" max="47" width="15.33203125" customWidth="1"/>
-    <col min="48" max="48" width="12.5546875" customWidth="1"/>
-    <col min="49" max="49" width="21.44140625" customWidth="1"/>
-    <col min="50" max="50" width="18.6640625" customWidth="1"/>
-    <col min="51" max="51" width="15.33203125" customWidth="1"/>
-    <col min="52" max="52" width="12.5546875" customWidth="1"/>
-    <col min="53" max="53" width="21.44140625" customWidth="1"/>
-    <col min="54" max="54" width="18.6640625" customWidth="1"/>
-    <col min="55" max="55" width="14.88671875" customWidth="1"/>
-    <col min="56" max="56" width="12.109375" customWidth="1"/>
-    <col min="57" max="57" width="20.88671875" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" customWidth="1"/>
-    <col min="59" max="59" width="14.88671875" customWidth="1"/>
-    <col min="60" max="60" width="12.109375" customWidth="1"/>
-    <col min="61" max="61" width="20.88671875" customWidth="1"/>
-    <col min="62" max="62" width="18.33203125" customWidth="1"/>
-    <col min="63" max="63" width="14.88671875" customWidth="1"/>
-    <col min="64" max="64" width="12.109375" customWidth="1"/>
-    <col min="65" max="65" width="20.88671875" customWidth="1"/>
-    <col min="66" max="66" width="18.33203125" customWidth="1"/>
-    <col min="67" max="67" width="14.88671875" customWidth="1"/>
-    <col min="68" max="68" width="12.109375" customWidth="1"/>
-    <col min="69" max="69" width="20.88671875" customWidth="1"/>
-    <col min="70" max="70" width="18.33203125" customWidth="1"/>
-    <col min="71" max="71" width="14.88671875" customWidth="1"/>
-    <col min="72" max="72" width="12.109375" customWidth="1"/>
-    <col min="73" max="73" width="20.88671875" customWidth="1"/>
-    <col min="74" max="74" width="18.33203125" customWidth="1"/>
-    <col min="75" max="75" width="14.88671875" customWidth="1"/>
-    <col min="76" max="76" width="12.109375" customWidth="1"/>
-    <col min="77" max="77" width="20.88671875" customWidth="1"/>
-    <col min="78" max="78" width="18.33203125" customWidth="1"/>
-    <col min="79" max="79" width="15.109375" customWidth="1"/>
-    <col min="80" max="80" width="12.44140625" customWidth="1"/>
-    <col min="81" max="81" width="21.109375" customWidth="1"/>
-    <col min="82" max="82" width="18.5546875" customWidth="1"/>
-    <col min="83" max="83" width="15.109375" customWidth="1"/>
-    <col min="84" max="84" width="12.44140625" customWidth="1"/>
-    <col min="85" max="85" width="21.109375" customWidth="1"/>
-    <col min="86" max="86" width="18.5546875" customWidth="1"/>
-    <col min="87" max="87" width="15.109375" customWidth="1"/>
-    <col min="88" max="88" width="12.44140625" customWidth="1"/>
-    <col min="89" max="89" width="21.109375" customWidth="1"/>
-    <col min="90" max="90" width="18.5546875" customWidth="1"/>
-    <col min="91" max="91" width="14.6640625" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" customWidth="1"/>
+    <col min="47" max="47" width="15.28515625" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" customWidth="1"/>
+    <col min="49" max="49" width="21.42578125" customWidth="1"/>
+    <col min="50" max="50" width="18.7109375" customWidth="1"/>
+    <col min="51" max="51" width="15.28515625" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" customWidth="1"/>
+    <col min="54" max="54" width="18.7109375" customWidth="1"/>
+    <col min="55" max="55" width="14.85546875" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" customWidth="1"/>
+    <col min="57" max="57" width="20.85546875" customWidth="1"/>
+    <col min="58" max="58" width="18.28515625" customWidth="1"/>
+    <col min="59" max="59" width="14.85546875" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" customWidth="1"/>
+    <col min="61" max="61" width="20.85546875" customWidth="1"/>
+    <col min="62" max="62" width="18.28515625" customWidth="1"/>
+    <col min="63" max="63" width="14.85546875" customWidth="1"/>
+    <col min="64" max="64" width="12.140625" customWidth="1"/>
+    <col min="65" max="65" width="20.85546875" customWidth="1"/>
+    <col min="66" max="66" width="18.28515625" customWidth="1"/>
+    <col min="67" max="67" width="14.85546875" customWidth="1"/>
+    <col min="68" max="68" width="12.140625" customWidth="1"/>
+    <col min="69" max="69" width="20.85546875" customWidth="1"/>
+    <col min="70" max="70" width="18.28515625" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" customWidth="1"/>
+    <col min="72" max="72" width="12.140625" customWidth="1"/>
+    <col min="73" max="73" width="20.85546875" customWidth="1"/>
+    <col min="74" max="74" width="18.28515625" customWidth="1"/>
+    <col min="75" max="75" width="14.85546875" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" customWidth="1"/>
+    <col min="77" max="77" width="20.85546875" customWidth="1"/>
+    <col min="78" max="78" width="18.28515625" customWidth="1"/>
+    <col min="79" max="79" width="15.140625" customWidth="1"/>
+    <col min="80" max="80" width="12.42578125" customWidth="1"/>
+    <col min="81" max="81" width="21.140625" customWidth="1"/>
+    <col min="82" max="82" width="18.5703125" customWidth="1"/>
+    <col min="83" max="83" width="15.140625" customWidth="1"/>
+    <col min="84" max="84" width="12.42578125" customWidth="1"/>
+    <col min="85" max="85" width="21.140625" customWidth="1"/>
+    <col min="86" max="86" width="18.5703125" customWidth="1"/>
+    <col min="87" max="87" width="15.140625" customWidth="1"/>
+    <col min="88" max="88" width="12.42578125" customWidth="1"/>
+    <col min="89" max="89" width="21.140625" customWidth="1"/>
+    <col min="90" max="90" width="18.5703125" customWidth="1"/>
+    <col min="91" max="91" width="14.7109375" customWidth="1"/>
     <col min="92" max="92" width="12" customWidth="1"/>
-    <col min="93" max="93" width="20.6640625" customWidth="1"/>
-    <col min="94" max="94" width="18.109375" customWidth="1"/>
-    <col min="95" max="95" width="14.6640625" customWidth="1"/>
+    <col min="93" max="93" width="20.7109375" customWidth="1"/>
+    <col min="94" max="94" width="18.140625" customWidth="1"/>
+    <col min="95" max="95" width="14.7109375" customWidth="1"/>
     <col min="96" max="96" width="12" customWidth="1"/>
-    <col min="97" max="97" width="20.6640625" customWidth="1"/>
-    <col min="98" max="98" width="18.109375" customWidth="1"/>
-    <col min="99" max="99" width="14.6640625" customWidth="1"/>
+    <col min="97" max="97" width="20.7109375" customWidth="1"/>
+    <col min="98" max="98" width="18.140625" customWidth="1"/>
+    <col min="99" max="99" width="14.7109375" customWidth="1"/>
     <col min="100" max="100" width="12" customWidth="1"/>
-    <col min="101" max="101" width="20.6640625" customWidth="1"/>
-    <col min="102" max="102" width="18.109375" customWidth="1"/>
+    <col min="101" max="101" width="20.7109375" customWidth="1"/>
+    <col min="102" max="102" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>257</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>358</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -10596,10 +10596,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -10611,7 +10611,7 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>257</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>358</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>22.27</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -11562,16 +11562,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>257</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>358</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -12339,14 +12339,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>257</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>358</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -12772,9 +12772,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:69" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>470</v>
       </c>
@@ -12919,7 +12919,7 @@
       <c r="BP1" s="5"/>
       <c r="BQ1" s="5"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45017</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45047</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45078</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45108</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45139</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45170</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45200</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45231</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45261</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45292</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45323</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45352</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45383</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -15643,61 +15643,61 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="16" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="20.88671875" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" customWidth="1"/>
-    <col min="25" max="27" width="17.5546875" customWidth="1"/>
-    <col min="28" max="28" width="20.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" customWidth="1"/>
+    <col min="25" max="27" width="17.5703125" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" customWidth="1"/>
     <col min="29" max="29" width="20" customWidth="1"/>
-    <col min="30" max="32" width="17.44140625" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.5546875" customWidth="1"/>
-    <col min="36" max="36" width="16.88671875" customWidth="1"/>
-    <col min="37" max="37" width="18.88671875" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" customWidth="1"/>
-    <col min="39" max="39" width="20.33203125" customWidth="1"/>
-    <col min="40" max="40" width="19.5546875" customWidth="1"/>
-    <col min="41" max="43" width="16.88671875" customWidth="1"/>
-    <col min="44" max="44" width="20.33203125" customWidth="1"/>
-    <col min="45" max="45" width="19.44140625" customWidth="1"/>
-    <col min="46" max="48" width="16.6640625" customWidth="1"/>
-    <col min="49" max="49" width="20.109375" customWidth="1"/>
-    <col min="50" max="50" width="12.33203125" customWidth="1"/>
-    <col min="51" max="51" width="19.109375" customWidth="1"/>
-    <col min="52" max="52" width="16.44140625" customWidth="1"/>
-    <col min="53" max="53" width="18.44140625" customWidth="1"/>
-    <col min="54" max="54" width="15.6640625" customWidth="1"/>
-    <col min="55" max="55" width="19.88671875" customWidth="1"/>
-    <col min="56" max="56" width="19.109375" customWidth="1"/>
-    <col min="57" max="59" width="16.44140625" customWidth="1"/>
-    <col min="60" max="60" width="19.88671875" customWidth="1"/>
+    <col min="30" max="32" width="17.42578125" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="20.28515625" customWidth="1"/>
+    <col min="40" max="40" width="19.5703125" customWidth="1"/>
+    <col min="41" max="43" width="16.85546875" customWidth="1"/>
+    <col min="44" max="44" width="20.28515625" customWidth="1"/>
+    <col min="45" max="45" width="19.42578125" customWidth="1"/>
+    <col min="46" max="48" width="16.7109375" customWidth="1"/>
+    <col min="49" max="49" width="20.140625" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" customWidth="1"/>
+    <col min="51" max="51" width="19.140625" customWidth="1"/>
+    <col min="52" max="52" width="16.42578125" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" customWidth="1"/>
+    <col min="56" max="56" width="19.140625" customWidth="1"/>
+    <col min="57" max="59" width="16.42578125" customWidth="1"/>
+    <col min="60" max="60" width="19.85546875" customWidth="1"/>
     <col min="61" max="61" width="19" customWidth="1"/>
-    <col min="62" max="62" width="16.33203125" customWidth="1"/>
-    <col min="63" max="64" width="16.44140625" customWidth="1"/>
-    <col min="65" max="65" width="19.6640625" customWidth="1"/>
+    <col min="62" max="62" width="16.28515625" customWidth="1"/>
+    <col min="63" max="64" width="16.42578125" customWidth="1"/>
+    <col min="65" max="65" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45017</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45047</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45078</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45108</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45139</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45170</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45200</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45231</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45261</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45292</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45323</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45352</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45383</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -20484,36 +20484,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="16.44140625" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>46</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45017</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45047</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>36.57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45078</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45108</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>47.26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45139</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>37.17</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45170</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>45.26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45200</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>53.16</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45231</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45261</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45292</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45323</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>55.81</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45352</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45383</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>44.76</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -22442,66 +22442,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="28" width="9.33203125" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="31" max="31" width="11.88671875" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" customWidth="1"/>
-    <col min="34" max="34" width="11.44140625" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" customWidth="1"/>
-    <col min="38" max="38" width="11.44140625" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" customWidth="1"/>
-    <col min="41" max="41" width="11.44140625" customWidth="1"/>
-    <col min="42" max="42" width="8.88671875" customWidth="1"/>
-    <col min="43" max="43" width="11.44140625" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" customWidth="1"/>
-    <col min="45" max="45" width="11.44140625" customWidth="1"/>
-    <col min="46" max="46" width="8.88671875" customWidth="1"/>
-    <col min="47" max="47" width="12.5546875" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" customWidth="1"/>
-    <col min="54" max="54" width="12.109375" customWidth="1"/>
-    <col min="55" max="55" width="11.33203125" customWidth="1"/>
-    <col min="56" max="56" width="8.6640625" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" customWidth="1"/>
-    <col min="58" max="58" width="8.6640625" customWidth="1"/>
-    <col min="59" max="59" width="11.33203125" customWidth="1"/>
-    <col min="60" max="60" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" customWidth="1"/>
+    <col min="44" max="44" width="8.85546875" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" customWidth="1"/>
+    <col min="46" max="46" width="8.85546875" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
+    <col min="52" max="52" width="11.7109375" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" customWidth="1"/>
+    <col min="55" max="55" width="11.28515625" customWidth="1"/>
+    <col min="56" max="56" width="8.7109375" customWidth="1"/>
+    <col min="57" max="57" width="11.28515625" customWidth="1"/>
+    <col min="58" max="58" width="8.7109375" customWidth="1"/>
+    <col min="59" max="59" width="11.28515625" customWidth="1"/>
+    <col min="60" max="60" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45017</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45047</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45078</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45108</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45139</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45170</v>
       </c>
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45200</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45231</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45261</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45292</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45323</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45352</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45383</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -27059,9 +27059,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:60" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="BG1" s="5"/>
       <c r="BH1" s="5"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45017</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45047</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45078</v>
       </c>
@@ -27437,7 +27437,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45108</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45139</v>
       </c>
@@ -27609,7 +27609,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45170</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45200</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45231</v>
       </c>
@@ -27867,7 +27867,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45261</v>
       </c>
@@ -27953,7 +27953,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45292</v>
       </c>
@@ -28039,7 +28039,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45323</v>
       </c>
@@ -28125,7 +28125,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45352</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45383</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -28899,7 +28899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -28985,7 +28985,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45658</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45689</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45717</v>
       </c>
@@ -29255,12 +29255,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45017</v>
       </c>
@@ -29548,7 +29548,7 @@
       <c r="BA2" s="7"/>
       <c r="BC2" s="7"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45047</v>
       </c>
@@ -29697,7 +29697,7 @@
       <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45078</v>
       </c>
@@ -29846,7 +29846,7 @@
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45108</v>
       </c>
@@ -29995,7 +29995,7 @@
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45139</v>
       </c>
@@ -30144,7 +30144,7 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45170</v>
       </c>
@@ -30293,7 +30293,7 @@
       <c r="BB7" s="7"/>
       <c r="BC7" s="7"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45200</v>
       </c>
@@ -30442,7 +30442,7 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45231</v>
       </c>
@@ -30591,7 +30591,7 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45261</v>
       </c>
@@ -30740,7 +30740,7 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45292</v>
       </c>
@@ -30889,7 +30889,7 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45323</v>
       </c>
@@ -31038,7 +31038,7 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45352</v>
       </c>
@@ -31187,7 +31187,7 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45383</v>
       </c>
@@ -31365,7 +31365,7 @@
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45413</v>
       </c>
@@ -31514,7 +31514,7 @@
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45444</v>
       </c>
@@ -31663,7 +31663,7 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45474</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45505</v>
       </c>
@@ -31943,7 +31943,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45536</v>
       </c>
@@ -32083,7 +32083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45566</v>
       </c>
@@ -32223,7 +32223,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45597</v>
       </c>
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45627</v>
       </c>
@@ -32515,9 +32515,50 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -32636,7 +32677,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45231</v>
       </c>
@@ -32737,7 +32778,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45261</v>
       </c>
@@ -32856,7 +32897,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45292</v>
       </c>
@@ -32939,7 +32980,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45323</v>
       </c>
@@ -33058,7 +33099,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45352</v>
       </c>
@@ -33177,7 +33218,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45383</v>
       </c>
@@ -33260,7 +33301,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45413</v>
       </c>
@@ -33379,7 +33420,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45444</v>
       </c>
@@ -33498,7 +33539,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45474</v>
       </c>
@@ -33617,7 +33658,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45505</v>
       </c>
@@ -33718,7 +33759,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45536</v>
       </c>
@@ -33819,7 +33860,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45566</v>
       </c>
@@ -33938,7 +33979,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45597</v>
       </c>
@@ -34057,7 +34098,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45627</v>
       </c>
@@ -34149,7 +34190,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45658</v>
       </c>
@@ -34268,7 +34309,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45689</v>
       </c>
@@ -34281,54 +34322,18 @@
       <c r="D17">
         <v>35.200000000000003</v>
       </c>
-      <c r="E17">
-        <v>-0.38</v>
-      </c>
-      <c r="F17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G17">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H17">
-        <v>0.11</v>
-      </c>
       <c r="I17">
         <v>8.92</v>
       </c>
       <c r="J17">
         <v>6.54</v>
       </c>
-      <c r="K17">
-        <v>-0.91</v>
-      </c>
-      <c r="L17">
-        <v>0.99</v>
-      </c>
-      <c r="M17">
-        <v>-0.08</v>
-      </c>
-      <c r="N17">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Q17">
-        <v>-2.95</v>
-      </c>
-      <c r="R17">
-        <v>1.24</v>
-      </c>
-      <c r="S17">
-        <v>-0.25</v>
-      </c>
-      <c r="T17">
-        <v>0.17</v>
-      </c>
       <c r="U17" s="7">
         <v>45699</v>
       </c>
@@ -34338,56 +34343,20 @@
       <c r="W17">
         <v>5.24</v>
       </c>
-      <c r="X17">
-        <v>-3.06</v>
-      </c>
-      <c r="Y17">
-        <v>0.93</v>
-      </c>
-      <c r="Z17">
-        <v>-0.2</v>
-      </c>
-      <c r="AA17">
-        <v>0.1</v>
-      </c>
       <c r="AB17">
         <v>14.62</v>
       </c>
       <c r="AC17">
         <v>3.43</v>
       </c>
-      <c r="AD17">
-        <v>-1.3</v>
-      </c>
-      <c r="AE17">
-        <v>0.15</v>
-      </c>
-      <c r="AF17">
-        <v>-0.19</v>
-      </c>
-      <c r="AG17">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="AH17">
         <v>11.27</v>
       </c>
       <c r="AI17">
         <v>3.6</v>
       </c>
-      <c r="AJ17">
-        <v>-1.93</v>
-      </c>
-      <c r="AK17">
-        <v>0.89</v>
-      </c>
-      <c r="AL17">
-        <v>-0.23</v>
-      </c>
-      <c r="AM17">
-        <v>0.12</v>
-      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45717</v>
       </c>
@@ -34507,13 +34476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -34557,7 +34524,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45231</v>
       </c>
@@ -34601,7 +34568,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45261</v>
       </c>
@@ -34645,7 +34612,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45292</v>
       </c>
@@ -34689,7 +34656,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45323</v>
       </c>
@@ -34733,7 +34700,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45352</v>
       </c>
@@ -34777,7 +34744,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45383</v>
       </c>
@@ -34821,7 +34788,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45413</v>
       </c>
@@ -34865,7 +34832,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45444</v>
       </c>
@@ -34909,7 +34876,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45474</v>
       </c>
@@ -34953,7 +34920,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45505</v>
       </c>
@@ -34997,7 +34964,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45536</v>
       </c>
@@ -35041,7 +35008,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45566</v>
       </c>
@@ -35085,7 +35052,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45597</v>
       </c>
@@ -35129,7 +35096,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45627</v>
       </c>
@@ -35173,7 +35140,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45658</v>
       </c>
@@ -35217,7 +35184,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45689</v>
       </c>
@@ -35230,38 +35197,14 @@
       <c r="D17">
         <v>36.15</v>
       </c>
-      <c r="E17">
-        <v>-1.24</v>
-      </c>
-      <c r="F17">
-        <v>1.01</v>
-      </c>
-      <c r="G17">
-        <v>-0.19</v>
-      </c>
-      <c r="H17">
-        <v>0.12</v>
-      </c>
       <c r="I17">
         <v>9.52</v>
       </c>
       <c r="J17">
         <v>4.93</v>
       </c>
-      <c r="K17">
-        <v>-2.59</v>
-      </c>
-      <c r="L17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M17">
-        <v>-0.21</v>
-      </c>
-      <c r="N17">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45717</v>
       </c>

--- a/Data/CERP_PBC_Summary_Data.xlsx
+++ b/Data/CERP_PBC_Summary_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
   <si>
     <t>CR-E1_LiveMean</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>SL-S_SHSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer 2025</t>
   </si>
 </sst>
 </file>
@@ -11112,6 +11115,150 @@
         <v>0.04</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45809</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>662.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>282.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K11" t="n">
+        <v>468.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11" t="n">
+        <v>476.27</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>154.64</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12937,6 +13084,80 @@
       <c r="AJ10" t="n">
         <v>17.149999999999999</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45809</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
